--- a/Assets/ListaAlimGatos.xlsx
+++ b/Assets/ListaAlimGatos.xlsx
@@ -1,36 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00-PROGRAMACIO CON VSC\MP-NUEVO-INDEX\Assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C094DAC1-66E3-4C07-8C76-27ACE3E33652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{61BCEAD2-0625-4AE9-B312-24E467541DE2}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -205,103 +181,95 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <color/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="10.0"/>
+      <color/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="12.0"/>
+      <color/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11.0"/>
+      <color/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
-      </patternFill>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -499,21 +467,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -530,7 +498,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -581,454 +549,496 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}"/>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D9962A-AC3F-48D0-BC9B-046A35C971F1}">
-  <dimension ref="A1:D45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:D45"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="35.14"/>
+    <col customWidth="1" min="2" max="2" width="14.14"/>
+    <col customWidth="1" min="3" max="3" width="10.71"/>
+    <col customWidth="1" min="4" max="4" width="28.57"/>
+    <col customWidth="1" min="5" max="11" width="10.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>5090</v>
+        <v>5090.0</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>5330</v>
+        <v>5330.0</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>5480</v>
+        <v>5480.0</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>5010</v>
+        <v>5010.0</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>8390</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>8390.0</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>7310</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>7310.0</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>8735</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8735.0</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>8735</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8735.0</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
-        <v>10350</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="5">
+        <v>12310.0</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>13560</v>
+        <v>13560.0</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>9700</v>
+        <v>9700.0</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>7290</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+        <v>7290.0</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>7245</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+        <v>7245.0</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1">
-        <v>7390</v>
-      </c>
-      <c r="C14" s="5"/>
+      <c r="B14" s="5">
+        <v>8060.0</v>
+      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="1">
-        <v>6690</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>7290.0</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="1">
-        <v>6580</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>7180.0</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1">
-        <v>7470</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>8140.0</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="1">
-        <v>4080</v>
-      </c>
-      <c r="C18" s="5"/>
+      <c r="B18" s="5">
+        <v>4450.0</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1">
-        <v>3925</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>4280.0</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1">
-        <v>4090</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>4090.0</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1">
-        <v>4090</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4090.0</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1">
-        <v>4090</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4090.0</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="1">
-        <v>4960</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4960.0</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="1">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1700.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="1">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1700.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="1">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1700.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="1">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>730.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="1">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>730.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="1">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>730.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="1">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>730.0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="1">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>730.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="1">
-        <v>3460</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3460.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="1">
-        <v>3460</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3460.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="1">
-        <v>3460</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3460.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="1">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1790.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="1">
-        <v>4730</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4730.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="1">
-        <v>4040</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4040.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="1">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2300.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B42" s="1">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+        <v>2300.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="1">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+        <v>1420.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="1">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+        <v>1420.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="1">
-        <v>1420</v>
-      </c>
-    </row>
+        <v>1420.0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D20:D23"/>
@@ -1039,6 +1049,9 @@
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="D18:D19"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/ListaAlimGatos.xlsx
+++ b/Assets/ListaAlimGatos.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 - PROGRAMACION\MP-NUEVO-INDEX\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53703AE8-AD65-4346-9DB8-4550A5FF11A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -160,9 +169,6 @@
     <t>Sieger-Lata-Ad-Hairball-Pollo</t>
   </si>
   <si>
-    <t>Sieger-Lata-Ad-Extra</t>
-  </si>
-  <si>
     <t>Whiskas-Lata-Ad-Carne</t>
   </si>
   <si>
@@ -176,36 +182,35 @@
   </si>
   <si>
     <t>Whiskas-Snacks-Salmon</t>
+  </si>
+  <si>
+    <t>Sieger-Lata-Ad-Recovery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
-      <sz val="11.0"/>
-      <color/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color/>
+      <sz val="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color/>
+      <sz val="12"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -215,61 +220,73 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -467,21 +484,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -498,7 +515,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -548,445 +565,455 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}"/>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.14"/>
-    <col customWidth="1" min="2" max="2" width="14.14"/>
-    <col customWidth="1" min="3" max="3" width="10.71"/>
-    <col customWidth="1" min="4" max="4" width="28.57"/>
-    <col customWidth="1" min="5" max="11" width="10.71"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>5090.0</v>
+        <v>5090</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>5330.0</v>
+        <v>5330</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3">
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>5480.0</v>
+        <v>5480</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>5010.0</v>
+        <v>5010</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>8390.0</v>
+        <v>8390</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>7310.0</v>
+        <v>7310</v>
       </c>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>8735.0</v>
+        <v>8735</v>
       </c>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>8735.0</v>
+        <v>8735</v>
       </c>
       <c r="C8" s="4"/>
-    </row>
-    <row r="9">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="5">
-        <v>12310.0</v>
+        <v>12310</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>13560.0</v>
+        <v>13560</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>9700.0</v>
+        <v>9700</v>
       </c>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>7290.0</v>
+        <v>7290</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="15.75">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>7245.0</v>
+        <v>7245</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="15.75">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="5">
-        <v>8060.0</v>
+        <v>8060</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="5">
-        <v>7290.0</v>
+        <v>7290</v>
       </c>
       <c r="C15" s="3"/>
-    </row>
-    <row r="16">
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="5">
-        <v>7180.0</v>
+        <v>7180</v>
       </c>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="5">
-        <v>8140.0</v>
+        <v>8140</v>
       </c>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="5">
-        <v>4450.0</v>
+        <v>4450</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="5">
-        <v>4280.0</v>
+        <v>4280</v>
       </c>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1">
-        <v>4090.0</v>
+        <v>4090</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1">
-        <v>4090.0</v>
+        <v>4090</v>
       </c>
       <c r="C21" s="3"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1">
-        <v>4090.0</v>
+        <v>4090</v>
       </c>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="1">
-        <v>4960.0</v>
+        <v>4960</v>
       </c>
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="1">
-        <v>1700.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="1">
-        <v>1700.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="1">
-        <v>1700.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="1">
-        <v>1650.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="1">
-        <v>1650.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="1">
-        <v>1650.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="1">
-        <v>730.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="1">
-        <v>730.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="1">
-        <v>730.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="1">
-        <v>730.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="1">
-        <v>730.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="1">
-        <v>3460.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="1">
-        <v>3460.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="1">
-        <v>3460.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="1">
-        <v>1790.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="1">
-        <v>4730.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="1">
-        <v>4040.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="1">
-        <v>2300.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A43" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="1">
-        <v>2300.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="6" t="s">
+      <c r="B43" s="1">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A44" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="1">
-        <v>1420.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="7" t="s">
+      <c r="B44" s="1">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A45" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="1">
-        <v>1420.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="B45" s="1">
-        <v>1420.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -1049,9 +1076,7 @@
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="D18:D19"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/ListaAlimGatos.xlsx
+++ b/Assets/ListaAlimGatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 - PROGRAMACION\MP-NUEVO-INDEX\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53703AE8-AD65-4346-9DB8-4550A5FF11A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E32611-BD98-4DB4-9F61-8A70A9782AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="375" windowWidth="15375" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,8 @@
   <fonts count="5">
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,14 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -245,6 +239,7 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -254,9 +249,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -279,20 +273,20 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -316,113 +310,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -570,63 +470,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="11" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.125" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="28.625" customWidth="1"/>
+    <col min="5" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>5090</v>
-      </c>
-      <c r="C1" s="2"/>
+      <c r="B1" s="2">
+        <v>5700</v>
+      </c>
+      <c r="C1" s="3"/>
       <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>5330</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2">
+        <v>6200</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>5480</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>5010</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="15.75">
@@ -636,7 +537,7 @@
       <c r="B5" s="1">
         <v>8390</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
@@ -648,7 +549,7 @@
       <c r="B6" s="1">
         <v>7310</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="15.75">
@@ -658,7 +559,7 @@
       <c r="B7" s="1">
         <v>8735</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="15.75">
@@ -668,41 +569,41 @@
       <c r="B8" s="1">
         <v>8735</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>12310</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>13560</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>9700</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="15.75">
@@ -712,8 +613,8 @@
       <c r="B12" s="1">
         <v>7290</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -721,11 +622,11 @@
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1">
-        <v>7245</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="2">
+        <v>8040</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -733,10 +634,10 @@
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="1">
         <v>8060</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="8" t="s">
         <v>21</v>
       </c>
@@ -745,40 +646,40 @@
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="1">
         <v>7290</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="1">
         <v>7180</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="1">
         <v>8140</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="1">
         <v>4450</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="8" t="s">
         <v>26</v>
       </c>
@@ -787,20 +688,20 @@
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="1">
         <v>4280</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="1">
-        <v>4090</v>
-      </c>
-      <c r="C20" s="3"/>
+      <c r="B20" s="2">
+        <v>4470</v>
+      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="8" t="s">
         <v>29</v>
       </c>
@@ -809,30 +710,30 @@
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="1">
-        <v>4090</v>
-      </c>
-      <c r="C21" s="3"/>
+      <c r="B21" s="2">
+        <v>4470</v>
+      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1">
-        <v>4090</v>
-      </c>
-      <c r="C22" s="3"/>
+      <c r="B22" s="2">
+        <v>4470</v>
+      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="1">
-        <v>4960</v>
-      </c>
-      <c r="C23" s="3"/>
+      <c r="B23" s="2">
+        <v>4470</v>
+      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
@@ -1066,15 +967,160 @@
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
     <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
